--- a/biology/Botanique/Onopordum_illyricum/Onopordum_illyricum.xlsx
+++ b/biology/Botanique/Onopordum_illyricum/Onopordum_illyricum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Onopordum illyricum L., l'Onoporde d'Illyrie, est une espèce de plantes dicotylédones de la famille des Astéracées. Il s'agit d'un grand chardon très épineux, de la hauteur d'un homme, à floraison pourpre et dont l'involucre évoque celui de l'artichaut. Originaire du sud-ouest de l'Europe, il est fréquent dans les pelouses sèches de la Garrigue languedocienne[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Onopordum illyricum L., l'Onoporde d'Illyrie, est une espèce de plantes dicotylédones de la famille des Astéracées. Il s'agit d'un grand chardon très épineux, de la hauteur d'un homme, à floraison pourpre et dont l'involucre évoque celui de l'artichaut. Originaire du sud-ouest de l'Europe, il est fréquent dans les pelouses sèches de la Garrigue languedocienne.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Nom vulgaire (vulgarisation scientifique) recommandé ou typique en français : Onopordon d'Illyrie[2],[3],[4],
-Autre nom vulgaire : Pet d'âne d'Illyrie[3],
-Nom vernaculaire (langage courant), pouvant désigner éventuellement d'autres espèces : chardon aux ânes[3]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nom vulgaire (vulgarisation scientifique) recommandé ou typique en français : Onopordon d'Illyrie
+Autre nom vulgaire : Pet d'âne d'Illyrie,
+Nom vernaculaire (langage courant), pouvant désigner éventuellement d'autres espèces : chardon aux ânes</t>
         </is>
       </c>
     </row>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Une tige complète.
@@ -578,11 +594,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite en 1753 par le naturaliste suédois Carl von Linné (1707-1778)[5].
-Liste des sous-espèces
-Selon Catalogue of Life                                   (15 juin 2015)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite en 1753 par le naturaliste suédois Carl von Linné (1707-1778).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Onopordum_illyricum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Onopordum_illyricum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (15 juin 2015) :
 sous-espèce Onopordum illyricum subsp. cardunculus (Boiss.) Arènes
 sous-espèce Onopordum illyricum subsp. illyricum</t>
         </is>
